--- a/data/Collection.xlsx
+++ b/data/Collection.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\model with segments and powertrain\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EC7E1B-14E2-4C3F-BEA3-1CDD00DFC4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEE9F32-26F6-484F-8C90-5D9433020B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66C38FE6-7F1B-4F07-9DE9-E34F60D40B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{66C38FE6-7F1B-4F07-9DE9-E34F60D40B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
   <extLst>
@@ -142,9 +141,6 @@
     <t>Last modified by</t>
   </si>
   <si>
-    <t>Pristera</t>
-  </si>
-  <si>
     <t># Name of researcher responsible for last modification</t>
   </si>
   <si>
@@ -242,6 +238,9 @@
   </si>
   <si>
     <t>ODYM_Classifications_Master_Al_cars</t>
+  </si>
+  <si>
+    <t>Romain Billy</t>
   </si>
 </sst>
 </file>
@@ -661,19 +660,19 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -691,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -711,12 +710,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -729,12 +728,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -751,7 +750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -773,7 +772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -795,7 +794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -815,7 +814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -833,12 +832,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -851,12 +850,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -869,7 +868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -887,12 +886,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="10">
-        <v>43977</v>
+        <v>44802</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -905,12 +904,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -920,15 +919,15 @@
         <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -938,15 +937,15 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="B15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -956,12 +955,12 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -971,9 +970,9 @@
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -983,9 +982,9 @@
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -995,9 +994,9 @@
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1007,9 +1006,9 @@
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1019,21 +1018,21 @@
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="12">
         <v>151</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="12">
         <v>5</v>
@@ -1042,60 +1041,60 @@
         <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1106,10 +1105,10 @@
         <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1117,20 +1116,20 @@
         <v>2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="4" t="s">
@@ -1138,7 +1137,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1150,6 +1149,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1157,36 +1157,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F525485-5BF7-4B7F-9D80-F8AD30318E4F}">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1900</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1901</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1902</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1903</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1904</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1905</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1906</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1907</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1908</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1909</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1910</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1911</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1912</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1913</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1914</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1915</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1916</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1917</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1918</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1919</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1920</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1921</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1922</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1923</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1924</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1925</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1926</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1927</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1928</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1929</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1930</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1931</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1932</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1933</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1934</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1935</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1936</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1937</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1938</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1939</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1940</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1941</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1942</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1943</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1944</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1945</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1946</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1947</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1948</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1949</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1950</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>0.38945000000000363</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1951</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>0.41056100000000129</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1952</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0.43167199999999895</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1953</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0.45278300000000371</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1954</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0.47389400000000137</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1955</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0.49500499999999903</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1956</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>0.51611600000000379</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1957</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0.53722700000000145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1958</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>0.55833799999999911</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1959</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1960</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0.66028000000000731</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1961</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0.68742300000000967</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1962</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0.71456600000001202</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1963</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0.74170900000000728</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1964</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>0.76885200000000964</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1965</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>0.795995000000012</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1966</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>0.82313800000000725</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1967</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0.85028100000000961</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1968</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1969</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1970</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1971</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1972</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1973</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1974</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1975</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1976</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1977</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1978</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1979</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1980</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1981</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1982</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1983</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1984</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1985</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1986</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1987</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1988</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1989</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1990</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1991</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1992</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1993</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1994</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1995</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1996</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1997</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1998</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1999</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2000</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2001</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2002</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2003</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2004</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2005</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2006</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2007</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2008</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2009</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2010</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2011</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2012</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2013</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2014</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2015</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2016</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2017</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2018</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2019</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2020</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2021</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2022</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2023</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2024</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2025</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2026</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2027</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2028</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2029</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2030</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2031</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2032</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2033</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2034</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2035</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2036</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2037</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2038</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2039</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2040</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2041</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2042</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2043</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2044</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2045</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2046</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2047</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2048</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2049</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2050</v>
       </c>
@@ -4622,847 +4622,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FFAF0D-B3E5-43E3-9BF8-988D40819FB9}">
-  <dimension ref="A1:A151"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A151"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <f>0.92</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <f t="shared" ref="A72:A110" si="0">0.92</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="14">
-        <f>A119</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="14">
-        <f t="shared" ref="A121:A151" si="1">A120</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Collection.xlsx
+++ b/data/Collection.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEE9F32-26F6-484F-8C90-5D9433020B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046483B9-F60A-456F-A532-F7A9A9632F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{66C38FE6-7F1B-4F07-9DE9-E34F60D40B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{66C38FE6-7F1B-4F07-9DE9-E34F60D40B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -322,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -342,6 +342,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -358,6 +359,2658 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Car collection rates</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>North America</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$102:$A$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$102:$B$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E07-4520-888B-13B922040E75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Europe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$102:$A$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$102:$C$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E07-4520-888B-13B922040E75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$102:$A$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$102:$D$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E07-4520-888B-13B922040E75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Japan and South Korea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$102:$A$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$E$102:$E$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E07-4520-888B-13B922040E75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rest of the world</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$102:$A$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$F$102:$F$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88249999999999984</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88499999999999979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88749999999999973</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89249999999999963</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.89499999999999957</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.89749999999999952</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90249999999999941</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90499999999999936</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90749999999999931</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9124999999999992</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91499999999999915</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.91749999999999909</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92249999999999899</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.92499999999999893</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.92749999999999888</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.92999999999999883</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93249999999999877</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93499999999999872</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93749999999999867</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94249999999999856</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94499999999999851</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.94749999999999845</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E07-4520-888B-13B922040E75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1072875776"/>
+        <c:axId val="1072877416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1072875776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1072877416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1072877416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1072875776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109F6871-2E21-0430-91F3-CA4D1B674638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,7 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C843647F-A0C1-4E3C-91ED-A0F3A9731DBA}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1157,8 +3810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F525485-5BF7-4B7F-9D80-F8AD30318E4F}">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="Y110" sqref="Y110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,21 +3844,19 @@
         <v>1900</v>
       </c>
       <c r="B2" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C50" si="0">C3</f>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D60" si="1">0.25</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E2">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,21 +3864,19 @@
         <v>1901</v>
       </c>
       <c r="B3" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,21 +3884,19 @@
         <v>1902</v>
       </c>
       <c r="B4" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,21 +3904,19 @@
         <v>1903</v>
       </c>
       <c r="B5" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E5">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,21 +3924,19 @@
         <v>1904</v>
       </c>
       <c r="B6" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,21 +3944,19 @@
         <v>1905</v>
       </c>
       <c r="B7" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E7">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F7">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,21 +3964,19 @@
         <v>1906</v>
       </c>
       <c r="B8" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,21 +3984,19 @@
         <v>1907</v>
       </c>
       <c r="B9" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1367,21 +4004,19 @@
         <v>1908</v>
       </c>
       <c r="B10" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E10">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1389,21 +4024,19 @@
         <v>1909</v>
       </c>
       <c r="B11" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F11">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,21 +4044,19 @@
         <v>1910</v>
       </c>
       <c r="B12" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F12">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,21 +4064,19 @@
         <v>1911</v>
       </c>
       <c r="B13" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,21 +4084,19 @@
         <v>1912</v>
       </c>
       <c r="B14" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E14">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F14">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,21 +4104,19 @@
         <v>1913</v>
       </c>
       <c r="B15" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E15">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,21 +4124,19 @@
         <v>1914</v>
       </c>
       <c r="B16" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F16">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,21 +4144,19 @@
         <v>1915</v>
       </c>
       <c r="B17" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E17">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,21 +4164,19 @@
         <v>1916</v>
       </c>
       <c r="B18" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E18">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,21 +4184,19 @@
         <v>1917</v>
       </c>
       <c r="B19" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E19">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1587,21 +4204,19 @@
         <v>1918</v>
       </c>
       <c r="B20" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E20">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,21 +4224,19 @@
         <v>1919</v>
       </c>
       <c r="B21" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E21">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F21">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,21 +4244,19 @@
         <v>1920</v>
       </c>
       <c r="B22" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E22">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F22">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1653,21 +4264,19 @@
         <v>1921</v>
       </c>
       <c r="B23" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E23">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F23">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1675,21 +4284,19 @@
         <v>1922</v>
       </c>
       <c r="B24" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E24">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F24">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,21 +4304,19 @@
         <v>1923</v>
       </c>
       <c r="B25" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E25">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F25">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,21 +4324,19 @@
         <v>1924</v>
       </c>
       <c r="B26" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E26">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F26">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,21 +4344,19 @@
         <v>1925</v>
       </c>
       <c r="B27" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E27">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F27">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,21 +4364,19 @@
         <v>1926</v>
       </c>
       <c r="B28" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E28">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,21 +4384,19 @@
         <v>1927</v>
       </c>
       <c r="B29" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E29">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F29">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,21 +4404,19 @@
         <v>1928</v>
       </c>
       <c r="B30" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E30">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F30">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1829,21 +4424,19 @@
         <v>1929</v>
       </c>
       <c r="B31" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E31">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F31">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,21 +4444,19 @@
         <v>1930</v>
       </c>
       <c r="B32" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E32">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F32">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,21 +4464,19 @@
         <v>1931</v>
       </c>
       <c r="B33" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E33">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F33">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,21 +4484,19 @@
         <v>1932</v>
       </c>
       <c r="B34" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E34">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F34">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,21 +4504,19 @@
         <v>1933</v>
       </c>
       <c r="B35" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E35">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F35">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1939,21 +4524,19 @@
         <v>1934</v>
       </c>
       <c r="B36" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E36">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F36">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,21 +4544,19 @@
         <v>1935</v>
       </c>
       <c r="B37" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E37">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F37">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,21 +4564,19 @@
         <v>1936</v>
       </c>
       <c r="B38" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E38">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F38">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,21 +4584,19 @@
         <v>1937</v>
       </c>
       <c r="B39" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E39">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F39">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,21 +4604,19 @@
         <v>1938</v>
       </c>
       <c r="B40" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E40">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F40">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2049,21 +4624,19 @@
         <v>1939</v>
       </c>
       <c r="B41" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E41">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F41">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,21 +4644,19 @@
         <v>1940</v>
       </c>
       <c r="B42" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E42">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F42">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,21 +4664,19 @@
         <v>1941</v>
       </c>
       <c r="B43" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E43">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F43">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,21 +4684,19 @@
         <v>1942</v>
       </c>
       <c r="B44" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E44">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F44">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,21 +4704,19 @@
         <v>1943</v>
       </c>
       <c r="B45" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E45">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F45">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,21 +4724,19 @@
         <v>1944</v>
       </c>
       <c r="B46" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E46">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F46">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,21 +4744,19 @@
         <v>1945</v>
       </c>
       <c r="B47" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E47">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F47">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2203,21 +4764,19 @@
         <v>1946</v>
       </c>
       <c r="B48" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E48">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F48">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,21 +4784,19 @@
         <v>1947</v>
       </c>
       <c r="B49" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E49">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F49">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,21 +4804,19 @@
         <v>1948</v>
       </c>
       <c r="B50" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E50">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F50">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2269,21 +4824,19 @@
         <v>1949</v>
       </c>
       <c r="B51" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C51">
-        <f>C52</f>
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E51">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F51">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,20 +4844,19 @@
         <v>1950</v>
       </c>
       <c r="B52" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C52">
-        <v>0.25004999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E52">
-        <v>0.26000000000000512</v>
+        <v>0.2</v>
       </c>
       <c r="F52">
-        <v>0.38945000000000363</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2312,20 +4864,19 @@
         <v>1951</v>
       </c>
       <c r="B53" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C53">
-        <v>0.26632899999999537</v>
+        <v>0.21555555555555556</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E53">
-        <v>0.29000000000000625</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F53">
-        <v>0.41056100000000129</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2333,20 +4884,19 @@
         <v>1952</v>
       </c>
       <c r="B54" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C54">
-        <v>0.2826079999999962</v>
+        <v>0.2311111111111111</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E54">
-        <v>0.32000000000000028</v>
+        <v>0.27</v>
       </c>
       <c r="F54">
-        <v>0.43167199999999895</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2354,20 +4904,19 @@
         <v>1953</v>
       </c>
       <c r="B55" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C55">
-        <v>0.29888699999999702</v>
+        <v>0.24666666666666665</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E55">
-        <v>0.35000000000000142</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F55">
-        <v>0.45278300000000371</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,20 +4924,19 @@
         <v>1954</v>
       </c>
       <c r="B56" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C56">
-        <v>0.31516599999999784</v>
+        <v>0.26222222222222219</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E56">
-        <v>0.38000000000000256</v>
+        <v>0.34</v>
       </c>
       <c r="F56">
-        <v>0.47389400000000137</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2396,20 +4944,19 @@
         <v>1955</v>
       </c>
       <c r="B57" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C57">
-        <v>0.33144499999999866</v>
+        <v>0.27777777777777773</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E57">
-        <v>0.41000000000000369</v>
+        <v>0.375</v>
       </c>
       <c r="F57">
-        <v>0.49500499999999903</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2417,20 +4964,19 @@
         <v>1956</v>
       </c>
       <c r="B58" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C58">
-        <v>0.34772399999999593</v>
+        <v>0.29333333333333328</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E58">
-        <v>0.44000000000000483</v>
+        <v>0.41</v>
       </c>
       <c r="F58">
-        <v>0.51611600000000379</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,20 +4984,19 @@
         <v>1957</v>
       </c>
       <c r="B59" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C59">
-        <v>0.36400299999999675</v>
+        <v>0.30888888888888882</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E59">
-        <v>0.47000000000000597</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="F59">
-        <v>0.53722700000000145</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,20 +5004,19 @@
         <v>1958</v>
       </c>
       <c r="B60" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C60">
-        <v>0.38028199999999757</v>
+        <v>0.32444444444444437</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E60">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F60">
-        <v>0.55833799999999911</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2480,20 +5024,19 @@
         <v>1959</v>
       </c>
       <c r="B61" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C61">
-        <v>0.39656099999999839</v>
+        <v>0.33999999999999991</v>
       </c>
       <c r="D61">
-        <f>0.25</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E61">
-        <v>0.53000000000000114</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="F61">
-        <v>0.57999999999999996</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2501,19 +5044,19 @@
         <v>1960</v>
       </c>
       <c r="B62" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C62">
-        <v>0.41283999999999565</v>
+        <v>0.35555555555555546</v>
       </c>
       <c r="D62">
-        <v>0.59944000000000131</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E62">
-        <v>0.56000000000000227</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F62">
-        <v>0.66028000000000731</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2521,19 +5064,19 @@
         <v>1961</v>
       </c>
       <c r="B63" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C63">
-        <v>0.42911899999999648</v>
+        <v>0.371111111111111</v>
       </c>
       <c r="D63">
-        <v>0.635154</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E63">
-        <v>0.59000000000000341</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="F63">
-        <v>0.68742300000000967</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2541,19 +5084,19 @@
         <v>1962</v>
       </c>
       <c r="B64" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C64">
-        <v>0.4453979999999973</v>
+        <v>0.38666666666666655</v>
       </c>
       <c r="D64">
-        <v>0.67086799999999869</v>
+        <v>0.62</v>
       </c>
       <c r="E64">
-        <v>0.62000000000000455</v>
+        <v>0.62</v>
       </c>
       <c r="F64">
-        <v>0.71456600000001202</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2561,19 +5104,19 @@
         <v>1963</v>
       </c>
       <c r="B65" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C65">
-        <v>0.46167699999999812</v>
+        <v>0.40222222222222209</v>
       </c>
       <c r="D65">
-        <v>0.70658199999999738</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="E65">
-        <v>0.65000000000000568</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="F65">
-        <v>0.74170900000000728</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,19 +5124,19 @@
         <v>1964</v>
       </c>
       <c r="B66" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C66">
-        <v>0.47795599999999538</v>
+        <v>0.41777777777777764</v>
       </c>
       <c r="D66">
-        <v>0.74229599999999607</v>
+        <v>0.69</v>
       </c>
       <c r="E66">
-        <v>0.67999999999999972</v>
+        <v>0.69</v>
       </c>
       <c r="F66">
-        <v>0.76885200000000964</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,19 +5144,19 @@
         <v>1965</v>
       </c>
       <c r="B67" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C67">
-        <v>0.49423499999999621</v>
+        <v>0.43333333333333318</v>
       </c>
       <c r="D67">
-        <v>0.77800999999999476</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E67">
-        <v>0.71000000000000085</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="F67">
-        <v>0.795995000000012</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2621,19 +5164,19 @@
         <v>1966</v>
       </c>
       <c r="B68" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C68">
-        <v>0.51051399999999347</v>
+        <v>0.44888888888888873</v>
       </c>
       <c r="D68">
-        <v>0.81372399999999345</v>
+        <v>0.76</v>
       </c>
       <c r="E68">
-        <v>0.74000000000000199</v>
+        <v>0.76</v>
       </c>
       <c r="F68">
-        <v>0.82313800000000725</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2641,19 +5184,19 @@
         <v>1967</v>
       </c>
       <c r="B69" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C69">
-        <v>0.52679299999999785</v>
+        <v>0.46444444444444427</v>
       </c>
       <c r="D69">
-        <v>0.84943800000000635</v>
+        <v>0.8</v>
       </c>
       <c r="E69">
-        <v>0.77000000000000313</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F69">
-        <v>0.85028100000000961</v>
+        <v>0.79500000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2661,20 +5204,19 @@
         <v>1968</v>
       </c>
       <c r="B70" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C70">
-        <v>0.54307199999999511</v>
+        <v>0.47999999999999982</v>
       </c>
       <c r="D70">
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E70">
-        <v>0.80000000000000426</v>
+        <v>0.83</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70:F80" si="2">0.85</f>
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,21 +5224,19 @@
         <v>1969</v>
       </c>
       <c r="B71" s="13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C71">
-        <v>0.55935099999999949</v>
+        <v>0.49555555555555536</v>
       </c>
       <c r="D71">
-        <f>D70</f>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E71">
-        <v>0.8300000000000054</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,22 +5244,19 @@
         <v>1970</v>
       </c>
       <c r="B72">
-        <f>0.92</f>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C72">
-        <v>0.57562999999999676</v>
+        <v>0.51111111111111096</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D109" si="3">D71</f>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E72">
-        <v>0.85999999999999943</v>
+        <v>0.8</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2727,23 +5264,19 @@
         <v>1971</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:B111" si="4">0.92</f>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C73">
-        <v>0.59190899999999402</v>
+        <v>0.52666666666666651</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73:E96" si="5">0.86</f>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2751,23 +5284,19 @@
         <v>1972</v>
       </c>
       <c r="B74">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C74">
-        <v>0.6081879999999984</v>
+        <v>0.54222222222222205</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,23 +5304,19 @@
         <v>1973</v>
       </c>
       <c r="B75">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C75">
-        <v>0.62446699999999566</v>
+        <v>0.55777777777777759</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2799,23 +5324,19 @@
         <v>1974</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C76">
-        <v>0.64074600000000004</v>
+        <v>0.57333333333333314</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2823,23 +5344,19 @@
         <v>1975</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C77">
-        <v>0.65702499999999731</v>
+        <v>0.58888888888888868</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,23 +5364,19 @@
         <v>1976</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C78">
-        <v>0.67330399999999457</v>
+        <v>0.60444444444444423</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2871,23 +5384,19 @@
         <v>1977</v>
       </c>
       <c r="B79">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C79">
-        <v>0.68958299999999895</v>
+        <v>0.61999999999999977</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2895,23 +5404,19 @@
         <v>1978</v>
       </c>
       <c r="B80">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C80">
-        <v>0.70586199999999621</v>
+        <v>0.63555555555555532</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2919,23 +5424,19 @@
         <v>1979</v>
       </c>
       <c r="B81">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C81">
-        <v>0.72214099999999348</v>
+        <v>0.65111111111111086</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F81">
-        <f>0.85</f>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2943,23 +5444,19 @@
         <v>1980</v>
       </c>
       <c r="B82">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C82">
-        <v>0.73841999999999786</v>
+        <v>0.66666666666666641</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E82">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82:F95" si="6">0.88</f>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2967,23 +5464,19 @@
         <v>1981</v>
       </c>
       <c r="B83">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C83">
-        <v>0.75469899999999512</v>
+        <v>0.68222222222222195</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E83">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F83">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,23 +5484,19 @@
         <v>1982</v>
       </c>
       <c r="B84">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C84">
-        <v>0.7709779999999995</v>
+        <v>0.6977777777777775</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E84">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F84">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,23 +5504,19 @@
         <v>1983</v>
       </c>
       <c r="B85">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C85">
-        <v>0.78725699999999676</v>
+        <v>0.71333333333333304</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E85">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F85">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,23 +5524,19 @@
         <v>1984</v>
       </c>
       <c r="B86">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C86">
-        <v>0.80353599999999403</v>
+        <v>0.72888888888888859</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E86">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F86">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3063,23 +5544,19 @@
         <v>1985</v>
       </c>
       <c r="B87">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C87">
-        <v>0.81981499999999841</v>
+        <v>0.74444444444444413</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F87">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,23 +5564,19 @@
         <v>1986</v>
       </c>
       <c r="B88">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C88">
-        <v>0.83609399999999567</v>
+        <v>0.75999999999999968</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F88">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3111,23 +5584,19 @@
         <v>1987</v>
       </c>
       <c r="B89">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C89">
-        <v>0.85237300000000005</v>
+        <v>0.77555555555555522</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F89">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,23 +5604,19 @@
         <v>1988</v>
       </c>
       <c r="B90">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C90">
-        <v>0.86865199999999732</v>
+        <v>0.79111111111111077</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F90">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3159,23 +5624,19 @@
         <v>1989</v>
       </c>
       <c r="B91">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C91">
-        <v>0.88493099999999458</v>
+        <v>0.80666666666666631</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F91">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3183,23 +5644,19 @@
         <v>1990</v>
       </c>
       <c r="B92">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C92">
-        <v>0.90120999999999896</v>
+        <v>0.82222222222222185</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F92">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3207,23 +5664,19 @@
         <v>1991</v>
       </c>
       <c r="B93">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C93">
-        <v>0.91748899999999622</v>
+        <v>0.8377777777777774</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F93">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3231,23 +5684,19 @@
         <v>1992</v>
       </c>
       <c r="B94">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C94">
-        <v>0.93376799999999349</v>
+        <v>0.85333333333333294</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E94">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F94">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3255,23 +5704,19 @@
         <v>1993</v>
       </c>
       <c r="B95">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C95">
-        <v>0.95004699999999787</v>
+        <v>0.86888888888888849</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E95">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F95">
-        <f t="shared" si="6"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,23 +5724,19 @@
         <v>1994</v>
       </c>
       <c r="B96">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C96">
-        <v>0.96632599999999513</v>
+        <v>0.88444444444444403</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E96">
-        <f t="shared" si="5"/>
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F96">
-        <f>0.88</f>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3303,21 +5744,19 @@
         <v>1995</v>
       </c>
       <c r="B97">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C97">
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E97">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F97">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,22 +5764,19 @@
         <v>1996</v>
       </c>
       <c r="B98">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C98">
-        <f>C97</f>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E98">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F98">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3348,22 +5784,19 @@
         <v>1997</v>
       </c>
       <c r="B99">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:C111" si="7">C98</f>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E99">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F99">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3371,22 +5804,19 @@
         <v>1998</v>
       </c>
       <c r="B100">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C100">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E100">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F100">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3394,22 +5824,19 @@
         <v>1999</v>
       </c>
       <c r="B101">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C101">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E101">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F101">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3417,22 +5844,19 @@
         <v>2000</v>
       </c>
       <c r="B102">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C102">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E102">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F102">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3440,22 +5864,19 @@
         <v>2001</v>
       </c>
       <c r="B103">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C103">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E103">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F103">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3463,22 +5884,19 @@
         <v>2002</v>
       </c>
       <c r="B104">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C104">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E104">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F104">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3486,22 +5904,19 @@
         <v>2003</v>
       </c>
       <c r="B105">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C105">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E105">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F105">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3509,22 +5924,19 @@
         <v>2004</v>
       </c>
       <c r="B106">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C106">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E106">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F106">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3532,22 +5944,19 @@
         <v>2005</v>
       </c>
       <c r="B107">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C107">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E107">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F107">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3555,22 +5964,19 @@
         <v>2006</v>
       </c>
       <c r="B108">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C108">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E108">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F108">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3578,22 +5984,19 @@
         <v>2007</v>
       </c>
       <c r="B109">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C109">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
-        <v>0.88515200000000505</v>
+        <v>0.8</v>
       </c>
       <c r="E109">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F109">
-        <v>0.92</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3601,21 +6004,19 @@
         <v>2008</v>
       </c>
       <c r="B110">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C110">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D110">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="E110">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F110">
-        <v>0.92</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3623,21 +6024,19 @@
         <v>2009</v>
       </c>
       <c r="B111">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C111">
-        <f t="shared" si="7"/>
-        <v>0.98260499999999951</v>
+        <v>0.9</v>
       </c>
       <c r="D111">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="E111">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F111">
-        <v>0.92</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,19 +6044,19 @@
         <v>2010</v>
       </c>
       <c r="B112">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C112">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D112">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E112">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F112">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,19 +6064,19 @@
         <v>2011</v>
       </c>
       <c r="B113">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C113">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D113">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="E113">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F113">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,19 +6084,19 @@
         <v>2012</v>
       </c>
       <c r="B114">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C114">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D114">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="E114">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F114">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,19 +6104,19 @@
         <v>2013</v>
       </c>
       <c r="B115">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C115">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D115">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="E115">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F115">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3725,19 +6124,19 @@
         <v>2014</v>
       </c>
       <c r="B116">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C116">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D116">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="E116">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F116">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3745,19 +6144,19 @@
         <v>2015</v>
       </c>
       <c r="B117">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C117">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D117">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="E117">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F117">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,19 +6164,19 @@
         <v>2016</v>
       </c>
       <c r="B118">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C118">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D118">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="E118">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F118">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3785,19 +6184,19 @@
         <v>2017</v>
       </c>
       <c r="B119">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C119">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D119">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="E119">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F119">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,44 +6204,39 @@
         <v>2018</v>
       </c>
       <c r="B120">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C120">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D120">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="E120">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F120">
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2019</v>
       </c>
-      <c r="B121" s="14">
-        <f>B120</f>
-        <v>0.99</v>
-      </c>
-      <c r="C121" s="14">
-        <f t="shared" ref="C121:F121" si="8">C120</f>
-        <v>0.99</v>
-      </c>
-      <c r="D121" s="14">
-        <f t="shared" si="8"/>
-        <v>0.99</v>
-      </c>
-      <c r="E121" s="14">
-        <f t="shared" si="8"/>
-        <v>0.99</v>
-      </c>
-      <c r="F121" s="14">
-        <f t="shared" si="8"/>
-        <v>0.92</v>
+      <c r="B121" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="C121" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="D121" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="E121" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="F121" s="15">
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3850,24 +6244,19 @@
         <v>2020</v>
       </c>
       <c r="B122" s="14">
-        <f t="shared" ref="B122:B152" si="9">B121</f>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" ref="C122:C152" si="10">C121</f>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D122" s="14">
-        <f t="shared" ref="D122:D152" si="11">D121</f>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" ref="E122:E152" si="12">E121</f>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F122" s="14">
-        <f t="shared" ref="F122:F152" si="13">F121</f>
-        <v>0.92</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,24 +6264,20 @@
         <v>2021</v>
       </c>
       <c r="B123" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D123" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F123" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f>($F$152-$F$122)/30+F122</f>
+        <v>0.87749999999999995</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3900,24 +6285,20 @@
         <v>2022</v>
       </c>
       <c r="B124" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D124" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F124" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" ref="F124:F151" si="0">($F$152-$F$122)/30+F123</f>
+        <v>0.87999999999999989</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,24 +6306,20 @@
         <v>2023</v>
       </c>
       <c r="B125" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D125" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F125" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.88249999999999984</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3950,24 +6327,20 @@
         <v>2024</v>
       </c>
       <c r="B126" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C126" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D126" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E126" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F126" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.88499999999999979</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3975,24 +6348,20 @@
         <v>2025</v>
       </c>
       <c r="B127" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C127" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D127" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E127" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F127" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.88749999999999973</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4000,24 +6369,20 @@
         <v>2026</v>
       </c>
       <c r="B128" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C128" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D128" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E128" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F128" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.88999999999999968</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,24 +6390,20 @@
         <v>2027</v>
       </c>
       <c r="B129" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C129" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D129" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E129" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F129" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.89249999999999963</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4050,24 +6411,20 @@
         <v>2028</v>
       </c>
       <c r="B130" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C130" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D130" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E130" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F130" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.89499999999999957</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4075,24 +6432,20 @@
         <v>2029</v>
       </c>
       <c r="B131" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D131" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F131" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.89749999999999952</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4100,24 +6453,20 @@
         <v>2030</v>
       </c>
       <c r="B132" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D132" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F132" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.89999999999999947</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,24 +6474,23 @@
         <v>2031</v>
       </c>
       <c r="B133" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" ref="B133:B152" si="1">B132</f>
+        <v>0.95</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" ref="C133:C152" si="2">C132</f>
+        <v>0.95</v>
       </c>
       <c r="D133" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" ref="E133:F152" si="3">E132</f>
+        <v>0.95</v>
       </c>
       <c r="F133" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.90249999999999941</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,24 +6498,23 @@
         <v>2032</v>
       </c>
       <c r="B134" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D134" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F134" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.90499999999999936</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4175,24 +6522,23 @@
         <v>2033</v>
       </c>
       <c r="B135" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D135" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F135" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.90749999999999931</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4200,24 +6546,23 @@
         <v>2034</v>
       </c>
       <c r="B136" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D136" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F136" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.90999999999999925</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,24 +6570,23 @@
         <v>2035</v>
       </c>
       <c r="B137" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D137" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F137" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.9124999999999992</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,24 +6594,23 @@
         <v>2036</v>
       </c>
       <c r="B138" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D138" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F138" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.91499999999999915</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4275,24 +6618,23 @@
         <v>2037</v>
       </c>
       <c r="B139" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D139" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F139" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.91749999999999909</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4300,24 +6642,23 @@
         <v>2038</v>
       </c>
       <c r="B140" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D140" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F140" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.91999999999999904</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,24 +6666,23 @@
         <v>2039</v>
       </c>
       <c r="B141" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D141" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F141" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.92249999999999899</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,24 +6690,23 @@
         <v>2040</v>
       </c>
       <c r="B142" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D142" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F142" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.92499999999999893</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4375,24 +6714,23 @@
         <v>2041</v>
       </c>
       <c r="B143" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D143" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F143" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.92749999999999888</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4400,24 +6738,23 @@
         <v>2042</v>
       </c>
       <c r="B144" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D144" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F144" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.92999999999999883</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4425,24 +6762,23 @@
         <v>2043</v>
       </c>
       <c r="B145" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D145" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F145" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.93249999999999877</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4450,24 +6786,23 @@
         <v>2044</v>
       </c>
       <c r="B146" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D146" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F146" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.93499999999999872</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4475,24 +6810,23 @@
         <v>2045</v>
       </c>
       <c r="B147" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D147" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F147" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.93749999999999867</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4500,24 +6834,23 @@
         <v>2046</v>
       </c>
       <c r="B148" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D148" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F148" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.93999999999999861</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4525,24 +6858,23 @@
         <v>2047</v>
       </c>
       <c r="B149" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D149" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F149" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.94249999999999856</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4550,24 +6882,23 @@
         <v>2048</v>
       </c>
       <c r="B150" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D150" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F150" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.94499999999999851</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4575,24 +6906,23 @@
         <v>2049</v>
       </c>
       <c r="B151" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D151" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F151" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <f t="shared" si="0"/>
+        <v>0.94749999999999845</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4600,28 +6930,27 @@
         <v>2050</v>
       </c>
       <c r="B152" s="14">
-        <f t="shared" si="9"/>
-        <v>0.99</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="10"/>
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="D152" s="14">
-        <f t="shared" si="11"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
       <c r="F152" s="14">
-        <f t="shared" si="13"/>
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>